--- a/Results/attack success mechanism/unrestricted/adverb_analysis.xlsx
+++ b/Results/attack success mechanism/unrestricted/adverb_analysis.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
